--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itga9.xlsx
@@ -543,10 +543,10 @@
         <v>0.040137</v>
       </c>
       <c r="I2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N2">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q2">
-        <v>0.02993150325966667</v>
+        <v>0.04194849876133334</v>
       </c>
       <c r="R2">
-        <v>0.269383529337</v>
+        <v>0.377536488852</v>
       </c>
       <c r="S2">
-        <v>0.04663193594958638</v>
+        <v>0.04469766991452268</v>
       </c>
       <c r="T2">
-        <v>0.04663193594958638</v>
+        <v>0.04469766991452268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.040137</v>
       </c>
       <c r="I3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q3">
         <v>0.042193111478</v>
@@ -635,10 +635,10 @@
         <v>0.379738003302</v>
       </c>
       <c r="S3">
-        <v>0.06573497010446396</v>
+        <v>0.04495831377042485</v>
       </c>
       <c r="T3">
-        <v>0.06573497010446396</v>
+        <v>0.04495831377042483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.040137</v>
       </c>
       <c r="I4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N4">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O4">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P4">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q4">
-        <v>0.01503130204033334</v>
+        <v>0.006556593014000001</v>
       </c>
       <c r="R4">
-        <v>0.135281718363</v>
+        <v>0.059009337126</v>
       </c>
       <c r="S4">
-        <v>0.02341809256631092</v>
+        <v>0.006986291260887124</v>
       </c>
       <c r="T4">
-        <v>0.02341809256631092</v>
+        <v>0.006986291260887122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.040137</v>
       </c>
       <c r="I5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N5">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O5">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P5">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q5">
-        <v>0.1798391176646667</v>
+        <v>0.152756833003</v>
       </c>
       <c r="R5">
-        <v>1.618552058982</v>
+        <v>1.374811497027</v>
       </c>
       <c r="S5">
-        <v>0.28018125729988</v>
+        <v>0.162768029854972</v>
       </c>
       <c r="T5">
-        <v>0.28018125729988</v>
+        <v>0.1627680298549719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H6">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N6">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q6">
-        <v>0.04202506252822222</v>
+        <v>0.1197586423391111</v>
       </c>
       <c r="R6">
-        <v>0.3782255627539999</v>
+        <v>1.077827781052</v>
       </c>
       <c r="S6">
-        <v>0.06547315739848496</v>
+        <v>0.1276072427559461</v>
       </c>
       <c r="T6">
-        <v>0.06547315739848496</v>
+        <v>0.1276072427559461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H7">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q7">
-        <v>0.05924086514266666</v>
+        <v>0.1204569864446667</v>
       </c>
       <c r="R7">
-        <v>0.533167786284</v>
+        <v>1.084112878002</v>
       </c>
       <c r="S7">
-        <v>0.09229460361429508</v>
+        <v>0.1283513541124566</v>
       </c>
       <c r="T7">
-        <v>0.09229460361429508</v>
+        <v>0.1283513541124566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H8">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N8">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O8">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P8">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q8">
-        <v>0.02110456673844445</v>
+        <v>0.01871839758066667</v>
       </c>
       <c r="R8">
-        <v>0.189941100646</v>
+        <v>0.168465578226</v>
       </c>
       <c r="S8">
-        <v>0.03287996582908254</v>
+        <v>0.01994514180709253</v>
       </c>
       <c r="T8">
-        <v>0.03287996582908253</v>
+        <v>0.01994514180709253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H9">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N9">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O9">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P9">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q9">
-        <v>0.2525015232048888</v>
+        <v>0.4361050208863333</v>
       </c>
       <c r="R9">
-        <v>2.272513708844</v>
+        <v>3.924945187977</v>
       </c>
       <c r="S9">
-        <v>0.3933860172378962</v>
+        <v>0.464685956523698</v>
       </c>
       <c r="T9">
-        <v>0.3933860172378962</v>
+        <v>0.4646859565236982</v>
       </c>
     </row>
   </sheetData>
